--- a/src/test/resources/Data/AllRecipes.xlsx
+++ b/src/test/resources/Data/AllRecipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshm\eclipse-workspace\RecipeScrapingApr23\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0DF6A-D5ED-40B4-89FF-78550698F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD07BD7-37F7-4325-9001-B55685228A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28AC05A8-D52F-4506-9CEC-5032D215E323}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -139,6 +139,51 @@
   </si>
   <si>
     <t xml:space="preserve">15 min </t>
+  </si>
+  <si>
+    <t>scrambled-eggs-41165r</t>
+  </si>
+  <si>
+    <t>Nonveg</t>
+  </si>
+  <si>
+    <t>4 eggs, salt, 1/4 tspblack pepper, 2 tbsp</t>
+  </si>
+  <si>
+    <t>2 min 2 min</t>
+  </si>
+  <si>
+    <t>Broccoli salad</t>
+  </si>
+  <si>
+    <t>1 broccoli floret, sliced cucumber</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>bsndbnsd</t>
+  </si>
+  <si>
+    <t>Pumpkin seeds</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>1 cup pumpkin seeds</t>
+  </si>
+  <si>
+    <t>2min 5 min</t>
+  </si>
+  <si>
+    <t>dsfdf</t>
+  </si>
+  <si>
+    <t>dfdsf</t>
   </si>
 </sst>
 </file>
@@ -543,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79B9DEE-9D4F-45C5-ACB0-0694B7B51BD1}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -737,6 +782,93 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>41165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>52312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>12122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
